--- a/exercicio4/report/method_results.xlsx
+++ b/exercicio4/report/method_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,22 +493,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>92.03</v>
+        <v>92.22999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.878834455401018</v>
+        <v>1.210929395134169</v>
       </c>
       <c r="F2" t="n">
-        <v>90.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8300447463989258</v>
+        <v>0.9001123666763305</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02776154853668223</v>
+        <v>0.08531878671020994</v>
       </c>
     </row>
     <row r="3">
@@ -524,22 +524,22 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>93.465</v>
+        <v>92.2775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4302905994790017</v>
+        <v>1.201688915651633</v>
       </c>
       <c r="F3" t="n">
-        <v>91.10000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8123334884643555</v>
+        <v>0.9288593769073487</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0119293528277154</v>
+        <v>0.09820069275365244</v>
       </c>
     </row>
     <row r="4">
@@ -555,22 +555,22 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>92.30499999999999</v>
+        <v>91.675</v>
       </c>
       <c r="E4" t="n">
-        <v>1.033972920341722</v>
+        <v>1.421311014521454</v>
       </c>
       <c r="F4" t="n">
-        <v>91.10000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.810588026046753</v>
+        <v>0.8329785585403442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02251543541086512</v>
+        <v>0.03733132730307859</v>
       </c>
     </row>
     <row r="5">
@@ -586,22 +586,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>91.26000000000001</v>
+        <v>91.99749999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.278534317099076</v>
+        <v>1.354042558415356</v>
       </c>
       <c r="F5" t="n">
-        <v>88.8</v>
+        <v>91</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8079673290252686</v>
+        <v>0.8076077461242676</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005999916899277428</v>
+        <v>0.02177572966431056</v>
       </c>
     </row>
     <row r="6">
@@ -617,10 +617,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>91.435</v>
+        <v>92.08750000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1462873883832816</v>
+        <v>1.439411772218082</v>
       </c>
       <c r="F6" t="n">
         <v>89.8</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7967175960540771</v>
+        <v>0.8349637746810913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02129636135769054</v>
+        <v>0.03197616249066071</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>91.61999999999999</v>
+        <v>91.43750000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1.918098016265074</v>
+        <v>1.400323623309982</v>
       </c>
       <c r="F7" t="n">
-        <v>90.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7854004859924316</v>
+        <v>0.8458102703094482</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003489197889535778</v>
+        <v>0.03801015401596</v>
       </c>
     </row>
     <row r="8">
@@ -679,22 +679,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>90.47</v>
+        <v>87.8175</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5644466316667994</v>
+        <v>5.913713406143387</v>
       </c>
       <c r="F8" t="n">
-        <v>88.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8040706634521484</v>
+        <v>0.8187907695770263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01941307896918255</v>
+        <v>0.01916636689005912</v>
       </c>
     </row>
     <row r="9">
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>98.41</v>
+        <v>98.41250000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6940100863820365</v>
+        <v>0.6495431086540759</v>
       </c>
       <c r="F9" t="n">
-        <v>92.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.577458763122559</v>
+        <v>1.679553532600403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01284641929406379</v>
+        <v>0.0495320632969475</v>
       </c>
     </row>
     <row r="10">
@@ -741,22 +741,22 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>98.17999999999999</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1.095376647550973</v>
+        <v>0.6286692294044607</v>
       </c>
       <c r="F10" t="n">
-        <v>92.7</v>
+        <v>92.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.577818155288696</v>
+        <v>1.673705911636353</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01715130086840338</v>
+        <v>0.04475797380917023</v>
       </c>
     </row>
     <row r="11">
@@ -772,22 +772,22 @@
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>98.03999999999999</v>
+        <v>97.82250000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6746480563968185</v>
+        <v>1.732030961039669</v>
       </c>
       <c r="F11" t="n">
-        <v>92.10000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.565293931961059</v>
+        <v>1.74443256855011</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02647731616477465</v>
+        <v>0.0721369980192126</v>
       </c>
     </row>
     <row r="12">
@@ -803,22 +803,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>97.93500000000002</v>
+        <v>97.425</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4702658822411016</v>
+        <v>0.8654478609367527</v>
       </c>
       <c r="F12" t="n">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.556210470199585</v>
+        <v>1.702702665328979</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02413337832209141</v>
+        <v>0.04545586650983099</v>
       </c>
     </row>
     <row r="13">
@@ -834,22 +834,22 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>96.28500000000001</v>
+        <v>96.105</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3415406271587601</v>
+        <v>0.5261653732430513</v>
       </c>
       <c r="F13" t="n">
-        <v>92.80000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.490936279296875</v>
+        <v>1.821056151390076</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0536308893016869</v>
+        <v>0.1652957872526444</v>
       </c>
     </row>
     <row r="14">
@@ -865,22 +865,22 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>95.11000000000001</v>
+        <v>95.13250000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4112784944535775</v>
+        <v>0.4978767417745074</v>
       </c>
       <c r="F14" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.478067111968994</v>
+        <v>1.715123081207275</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01831401697844518</v>
+        <v>0.152425384582249</v>
       </c>
     </row>
     <row r="15">
@@ -896,22 +896,22 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>93.47999999999999</v>
+        <v>93.515</v>
       </c>
       <c r="E15" t="n">
-        <v>0.212367605815952</v>
+        <v>0.1714642819948224</v>
       </c>
       <c r="F15" t="n">
-        <v>90.7</v>
+        <v>91.2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.477733039855957</v>
+        <v>1.67432975769043</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00779322556728147</v>
+        <v>0.06671373182253637</v>
       </c>
     </row>
     <row r="16">
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.77000000000001</v>
+        <v>99.80250000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3136080356113353</v>
+        <v>0.4221152093919351</v>
       </c>
       <c r="F16" t="n">
         <v>92.10000000000001</v>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.972002124786377</v>
+        <v>3.427018475532532</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07043601042989506</v>
+        <v>0.2729393505553857</v>
       </c>
     </row>
     <row r="17">
@@ -958,22 +958,22 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>99.985</v>
+        <v>99.98249999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01999999999999815</v>
+        <v>0.025124689052802</v>
       </c>
       <c r="F17" t="n">
-        <v>91.60000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.934405899047852</v>
+        <v>3.317842984199524</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0228521280730616</v>
+        <v>0.1083721835023796</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         <v>0.1</v>
       </c>
       <c r="D18" t="n">
-        <v>99.89500000000001</v>
+        <v>99.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1494991638772645</v>
+        <v>0.05477225575051674</v>
       </c>
       <c r="F18" t="n">
-        <v>92.40000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.051012563705444</v>
+        <v>3.245110917091369</v>
       </c>
       <c r="I18" t="n">
-        <v>0.229492982953191</v>
+        <v>0.07905266785363564</v>
       </c>
     </row>
     <row r="19">
@@ -1020,22 +1020,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>99.41499999999999</v>
+        <v>99.44</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1124722187920163</v>
+        <v>0.07176350047203481</v>
       </c>
       <c r="F19" t="n">
-        <v>94.39999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05591402053833</v>
+        <v>3.250889110565185</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2582678245165463</v>
+        <v>0.04454126686525275</v>
       </c>
     </row>
     <row r="20">
@@ -1051,22 +1051,22 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>97.55</v>
+        <v>97.42250000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03535533905932738</v>
+        <v>0.2278842908144402</v>
       </c>
       <c r="F20" t="n">
-        <v>92.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.958780860900879</v>
+        <v>3.487412524223328</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01806897022350753</v>
+        <v>0.2854895081207086</v>
       </c>
     </row>
     <row r="21">
@@ -1082,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>96.03</v>
+        <v>95.93499999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07483314773547534</v>
+        <v>0.09695359714832598</v>
       </c>
       <c r="F21" t="n">
         <v>92.5</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.948232460021972</v>
+        <v>3.344196343421936</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008016913272269359</v>
+        <v>0.2269488223357714</v>
       </c>
     </row>
     <row r="22">
@@ -1113,22 +1113,22 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>93.735</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09165151389911298</v>
+        <v>0.1168332144554782</v>
       </c>
       <c r="F22" t="n">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.977155017852783</v>
+        <v>3.290460228919983</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03315007533516209</v>
+        <v>0.1086561024120788</v>
       </c>
     </row>
     <row r="23">
@@ -1144,22 +1144,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>99.75</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4516635916254456</v>
+        <v>0.1094303431411972</v>
       </c>
       <c r="F23" t="n">
-        <v>91.2</v>
+        <v>90.7</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.378845787048339</v>
+        <v>4.763092947006226</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5618869846654657</v>
+        <v>0.406600554381826</v>
       </c>
     </row>
     <row r="24">
@@ -1175,22 +1175,22 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>99.97499999999999</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05</v>
+        <v>0.01658312395177477</v>
       </c>
       <c r="F24" t="n">
-        <v>92.2</v>
+        <v>91.2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.184889078140259</v>
+        <v>5.363179969787597</v>
       </c>
       <c r="I24" t="n">
-        <v>0.859066692070318</v>
+        <v>1.063405607176865</v>
       </c>
     </row>
     <row r="25">
@@ -1206,22 +1206,22 @@
         <v>0.1</v>
       </c>
       <c r="D25" t="n">
-        <v>99.995</v>
+        <v>99.95250000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00999999999999659</v>
+        <v>0.03051638903933631</v>
       </c>
       <c r="F25" t="n">
-        <v>93.40000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>5.118704175949096</v>
+        <v>4.88563084602356</v>
       </c>
       <c r="I25" t="n">
-        <v>0.651674650414498</v>
+        <v>0.4870691640878995</v>
       </c>
     </row>
     <row r="26">
@@ -1237,22 +1237,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>99.60499999999999</v>
+        <v>99.20500000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0187082869338694</v>
+        <v>0.7298801271441758</v>
       </c>
       <c r="F26" t="n">
-        <v>93.40000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.844625949859619</v>
+        <v>5.873482394218445</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03017341384048791</v>
+        <v>1.21641464329196</v>
       </c>
     </row>
     <row r="27">
@@ -1268,22 +1268,22 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>97.68499999999999</v>
+        <v>97.71000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1793042107704104</v>
+        <v>0.1044030650891067</v>
       </c>
       <c r="F27" t="n">
-        <v>93.2</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>5.790437078475952</v>
+        <v>6.721013784408569</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0880132104347572</v>
+        <v>0.3132895175732268</v>
       </c>
     </row>
     <row r="28">
@@ -1299,22 +1299,22 @@
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>96.14</v>
+        <v>96.11749999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1113552872566021</v>
+        <v>0.1294459346599968</v>
       </c>
       <c r="F28" t="n">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.932019186019898</v>
+        <v>6.497973251342773</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2599816200911644</v>
+        <v>0.06070124569939665</v>
       </c>
     </row>
     <row r="29">
@@ -1330,239 +1330,239 @@
         <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>93.76500000000001</v>
+        <v>93.82000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1529705854077768</v>
+        <v>0.07053367989832814</v>
       </c>
       <c r="F29" t="n">
-        <v>91.10000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.836522579193115</v>
+        <v>6.612084174156189</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0166021153574298</v>
+        <v>0.1576880573803838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>99.43999999999998</v>
+        <v>99.95500000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06041522986796895</v>
+        <v>0.06595452979136407</v>
       </c>
       <c r="F30" t="n">
-        <v>92.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7942872524261475</v>
+        <v>4.8188481092453</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03271060846867445</v>
+        <v>0.6684059659446657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C31" t="n">
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>99.52</v>
+        <v>99.97750000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1088577052853873</v>
+        <v>0.03051638903933491</v>
       </c>
       <c r="F31" t="n">
-        <v>92</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7836452007293702</v>
+        <v>5.418431401252747</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01396140948912264</v>
+        <v>1.570904007848665</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C32" t="n">
         <v>0.1</v>
       </c>
       <c r="D32" t="n">
-        <v>99.41</v>
+        <v>99.98000000000002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2059126028197388</v>
+        <v>0.01870828693386788</v>
       </c>
       <c r="F32" t="n">
-        <v>92.7</v>
+        <v>93.2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8078900814056397</v>
+        <v>5.187845683097839</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0251112627779444</v>
+        <v>0.9788787808965779</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>98.59999999999999</v>
+        <v>99.60249999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2928310092869299</v>
+        <v>0.09581883948368121</v>
       </c>
       <c r="F33" t="n">
-        <v>91.90000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7904133796691895</v>
+        <v>9.823950839042663</v>
       </c>
       <c r="I33" t="n">
-        <v>0.008348872699568128</v>
+        <v>3.09476547287976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>96.61</v>
+        <v>97.7175</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1189537725337041</v>
+        <v>0.07668930825089083</v>
       </c>
       <c r="F34" t="n">
-        <v>92.80000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8082183837890625</v>
+        <v>11.74391398429871</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02371379937192297</v>
+        <v>0.06968763746012951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C35" t="n">
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>95.39000000000001</v>
+        <v>96.1275</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2305428376679709</v>
+        <v>0.07022285952594301</v>
       </c>
       <c r="F35" t="n">
-        <v>91.3</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8045765399932862</v>
+        <v>11.67995929718018</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01955656047434868</v>
+        <v>0.03177027262900111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L-BFGS-B</t>
+          <t>TNC</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>1024</v>
       </c>
       <c r="C36" t="n">
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>93.53999999999999</v>
+        <v>93.7825</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07999999999999936</v>
+        <v>0.1101419538595532</v>
       </c>
       <c r="F36" t="n">
-        <v>91.10000000000001</v>
+        <v>91</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8197501182556153</v>
+        <v>11.70466229915619</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01326364654580549</v>
+        <v>0.05987331795570988</v>
       </c>
     </row>
     <row r="37">
@@ -1572,28 +1572,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>99.5025</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.1526638464077189</v>
       </c>
       <c r="F37" t="n">
-        <v>91.3</v>
+        <v>91.8</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.00239634513855</v>
+        <v>0.8276515483856202</v>
       </c>
       <c r="I37" t="n">
-        <v>1.274074208561293</v>
+        <v>0.03079600800355047</v>
       </c>
     </row>
     <row r="38">
@@ -1603,28 +1603,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>99.47999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.187349939951953</v>
       </c>
       <c r="F38" t="n">
-        <v>92.2</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.059762811660767</v>
+        <v>0.8089029550552368</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9102946159683087</v>
+        <v>0.01505375038359709</v>
       </c>
     </row>
     <row r="39">
@@ -1634,28 +1634,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C39" t="n">
         <v>0.1</v>
       </c>
       <c r="D39" t="n">
-        <v>99.98</v>
+        <v>99.36750000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01870828693386788</v>
+        <v>0.1541306264179818</v>
       </c>
       <c r="F39" t="n">
-        <v>93.30000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.59194483757019</v>
+        <v>0.8080274105072022</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01336652872830631</v>
+        <v>0.02071859097814839</v>
       </c>
     </row>
     <row r="40">
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>99.40000000000001</v>
+        <v>98.53749999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02738612787525416</v>
+        <v>0.1677982419454994</v>
       </c>
       <c r="F40" t="n">
         <v>93.40000000000001</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.617827415466309</v>
+        <v>0.817328405380249</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03673945190785519</v>
+        <v>0.02727167765854673</v>
       </c>
     </row>
     <row r="41">
@@ -1696,28 +1696,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>97.27000000000001</v>
+        <v>96.64750000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07968688725254178</v>
+        <v>0.2131460766704382</v>
       </c>
       <c r="F41" t="n">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.58113956451416</v>
+        <v>0.8109104871749878</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007579479304489204</v>
+        <v>0.01731009673380878</v>
       </c>
     </row>
     <row r="42">
@@ -1727,28 +1727,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>95.90000000000001</v>
+        <v>95.47</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09617692030835422</v>
+        <v>0.1611676146128626</v>
       </c>
       <c r="F42" t="n">
-        <v>93.10000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.599262475967407</v>
+        <v>0.8095016002655029</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02495240394397746</v>
+        <v>0.01997518457637551</v>
       </c>
     </row>
     <row r="43">
@@ -1758,28 +1758,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C43" t="n">
         <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>93.73500000000001</v>
+        <v>93.57750000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1593737745050936</v>
+        <v>0.1126110562955551</v>
       </c>
       <c r="F43" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.58992018699646</v>
+        <v>0.8107310771942139</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009019405391912649</v>
+        <v>0.02018326766489464</v>
       </c>
     </row>
     <row r="44">
@@ -1789,28 +1789,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
+        <v>99.99250000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.01145643923738569</v>
       </c>
       <c r="F44" t="n">
-        <v>91.5</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.229061985015869</v>
+        <v>6.204248595237732</v>
       </c>
       <c r="I44" t="n">
-        <v>1.86917797951664</v>
+        <v>1.530088593965882</v>
       </c>
     </row>
     <row r="45">
@@ -1820,28 +1820,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C45" t="n">
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>99.99249999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.02250000000000085</v>
       </c>
       <c r="F45" t="n">
-        <v>93.60000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.404399299621582</v>
+        <v>1.735101008415222</v>
       </c>
       <c r="I45" t="n">
-        <v>4.490153484095925</v>
+        <v>0.326577882026961</v>
       </c>
     </row>
     <row r="46">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C46" t="n">
         <v>0.1</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>99.97750000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.04394598957811475</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.188042163848877</v>
+        <v>1.600871014595032</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04109117199112058</v>
+        <v>0.01681760445506933</v>
       </c>
     </row>
     <row r="47">
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>99.625</v>
+        <v>99.425</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06519202405202933</v>
+        <v>0.0591607978309952</v>
       </c>
       <c r="F47" t="n">
-        <v>93.89999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.174874925613403</v>
+        <v>1.587693977355957</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03685212526026531</v>
+        <v>0.02150468493464996</v>
       </c>
     </row>
     <row r="48">
@@ -1913,28 +1913,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C48" t="n">
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>97.52</v>
+        <v>97.31500000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1443952907819391</v>
+        <v>0.1200000000000004</v>
       </c>
       <c r="F48" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>3.178392267227173</v>
+        <v>1.65771222114563</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03021489308027734</v>
+        <v>0.1605012432588115</v>
       </c>
     </row>
     <row r="49">
@@ -1944,28 +1944,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C49" t="n">
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>96.17</v>
+        <v>95.86500000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07810249675906557</v>
+        <v>0.1374772708486745</v>
       </c>
       <c r="F49" t="n">
-        <v>92.80000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3.149681997299195</v>
+        <v>1.592687058448792</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01493825377232713</v>
+        <v>0.01482148931945171</v>
       </c>
     </row>
     <row r="50">
@@ -1975,28 +1975,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C50" t="n">
         <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>93.72499999999999</v>
+        <v>93.69250000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0894427190999889</v>
+        <v>0.2150726621400323</v>
       </c>
       <c r="F50" t="n">
-        <v>91.5</v>
+        <v>90.8</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3.171115159988403</v>
+        <v>1.595998764038086</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02841192377499095</v>
+        <v>0.02815656840448139</v>
       </c>
     </row>
     <row r="51">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9.542293643951416</v>
+        <v>6.510361313819885</v>
       </c>
       <c r="I51" t="n">
-        <v>5.387058487563486</v>
+        <v>2.441627592346967</v>
       </c>
     </row>
     <row r="52">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C52" t="n">
         <v>0.01</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>5.761547613143921</v>
+        <v>4.920840239524841</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5474411655054527</v>
+        <v>3.170702278024751</v>
       </c>
     </row>
     <row r="53">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C53" t="n">
         <v>0.1</v>
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>6.332212972640991</v>
+        <v>3.17898473739624</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03946926126822634</v>
+        <v>0.02421500051864262</v>
       </c>
     </row>
     <row r="54">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>99.66999999999999</v>
+        <v>99.55250000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0599999999999973</v>
+        <v>0.06656763477847172</v>
       </c>
       <c r="F54" t="n">
-        <v>94.19999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>6.281476259231567</v>
+        <v>3.176420021057129</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0203176559071349</v>
+        <v>0.01870747840259109</v>
       </c>
     </row>
     <row r="55">
@@ -2130,28 +2130,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C55" t="n">
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>97.66000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07999999999999936</v>
+        <v>0.1233896267925285</v>
       </c>
       <c r="F55" t="n">
-        <v>93.5</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>6.322547531127929</v>
+        <v>3.179180121421814</v>
       </c>
       <c r="I55" t="n">
-        <v>0.02904524809803897</v>
+        <v>0.02737907326158923</v>
       </c>
     </row>
     <row r="56">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C56" t="n">
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>96.255</v>
+        <v>96.12249999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09273618495495377</v>
+        <v>0.1578963267463814</v>
       </c>
       <c r="F56" t="n">
         <v>92.7</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>6.255440902709961</v>
+        <v>3.162578892707825</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2081733208089827</v>
+        <v>0.02187067379173157</v>
       </c>
     </row>
     <row r="57">
@@ -2192,28 +2192,462 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="C57" t="n">
         <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>93.715</v>
+        <v>93.76750000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0815475321514979</v>
+        <v>0.1265158092887999</v>
       </c>
       <c r="F57" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.147274017333984</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0217384786684635</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>100</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.46268150806427</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.277592674704867</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>512</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6.446451139450073</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.674100135053837</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>512</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>100</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.320984649658203</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.06529507660851211</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>512</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>99.625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.02236067977500298</v>
+      </c>
+      <c r="F61" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6.329485106468201</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.03412589064619499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>512</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>97.71250000000001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.09303897032964213</v>
+      </c>
+      <c r="F62" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6.292641472816467</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04065210986264477</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>512</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>96.14000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.187483332592524</v>
+      </c>
+      <c r="F63" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6.301098036766052</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.05566060705917068</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>512</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1183215956619925</v>
+      </c>
+      <c r="F64" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6.272089457511902</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.05708602939673835</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8.810296177864075</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.049252212203609</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.96980082988739</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.612427292250796</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>12.50605094432831</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3606778122311596</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03905124837953087</v>
+      </c>
+      <c r="F68" t="n">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>12.65411927700043</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.09704049806703077</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>97.77250000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1472455432262721</v>
+      </c>
+      <c r="F69" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>11.26999008655548</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.707712435083298</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>96.1875</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.09503288904374099</v>
+      </c>
+      <c r="F70" t="n">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.143647193908691</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.596489703407272</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>L-BFGS-B</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>93.7675</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.06712860791048773</v>
+      </c>
+      <c r="F71" t="n">
         <v>91.3</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6.220573472976684</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.0637609276220389</v>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.675213313102722</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.730032020409157</v>
       </c>
     </row>
   </sheetData>
